--- a/config_12.08/fish_config.xlsx
+++ b/config_12.08/fish_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="200">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1200,6 +1200,18 @@
   </si>
   <si>
     <t>by_iocn_hfy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D090</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒BOSS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_lhy_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1261,7 +1273,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1277,6 +1289,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,7 +1341,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1391,6 +1409,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1670,11 +1712,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4165,6 +4207,84 @@
         <v>187</v>
       </c>
     </row>
+    <row r="35" spans="1:28" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="23">
+        <v>34</v>
+      </c>
+      <c r="B35" s="23">
+        <v>34</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" s="24">
+        <v>2.64</v>
+      </c>
+      <c r="H35" s="24">
+        <v>2.38</v>
+      </c>
+      <c r="I35" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J35" s="23">
+        <v>30</v>
+      </c>
+      <c r="K35" s="25">
+        <v>1</v>
+      </c>
+      <c r="L35" s="23">
+        <v>200</v>
+      </c>
+      <c r="M35" s="23">
+        <v>4</v>
+      </c>
+      <c r="N35" s="26"/>
+      <c r="O35" s="27">
+        <v>0.64</v>
+      </c>
+      <c r="P35" s="27">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="Q35" s="27">
+        <v>0.74</v>
+      </c>
+      <c r="R35" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="S35" s="27">
+        <v>1</v>
+      </c>
+      <c r="T35" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="U35" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="V35" s="23"/>
+      <c r="W35" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="X35" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y35" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
